--- a/Saved_file/EM003/2026_01/sap_data.xlsx
+++ b/Saved_file/EM003/2026_01/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST6674</t>
+          <t>CUST1641</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23976077</v>
+        <v>17348566</v>
       </c>
       <c r="E2" t="n">
-        <v>5422297</v>
+        <v>4130449</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST7228</t>
+          <t>CUST6916</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29573761</v>
+        <v>32115505</v>
       </c>
       <c r="E3" t="n">
-        <v>6277714</v>
+        <v>6196445</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST5961</t>
+          <t>CUST3839</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25227692</v>
+        <v>25839377</v>
       </c>
       <c r="E4" t="n">
-        <v>4127039</v>
+        <v>4306638</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST1608</t>
+          <t>CUST6361</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37891818</v>
+        <v>37412391</v>
       </c>
       <c r="E5" t="n">
-        <v>8433266</v>
+        <v>6588123</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7228</t>
+          <t>CUST7132</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26765181</v>
+        <v>19951005</v>
       </c>
       <c r="E6" t="n">
-        <v>6552901</v>
+        <v>4935359</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST3135</t>
+          <t>CUST3267</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26254128</v>
+        <v>38302321</v>
       </c>
       <c r="E7" t="n">
-        <v>5542929</v>
+        <v>8617706</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4004</t>
+          <t>CUST7130</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21020836</v>
+        <v>39698068</v>
       </c>
       <c r="E8" t="n">
-        <v>3532868</v>
+        <v>8590559</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST4006</t>
+          <t>CUST1641</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15688008</v>
+        <v>23405811</v>
       </c>
       <c r="E9" t="n">
-        <v>3181457</v>
+        <v>5826094</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -907,12 +907,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST2568</t>
+          <t>CUST6257</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16330328</v>
+        <v>33584884</v>
       </c>
       <c r="E10" t="n">
-        <v>3551503</v>
+        <v>5155839</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST9249</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31685003</v>
+        <v>19501432</v>
       </c>
       <c r="E11" t="n">
-        <v>5248666</v>
+        <v>4428606</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST9504</t>
+          <t>CUST5890</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18343948</v>
+        <v>23273520</v>
       </c>
       <c r="E12" t="n">
-        <v>4267253</v>
+        <v>5272244</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST8900</t>
+          <t>CUST1791</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26875223</v>
+        <v>39141783</v>
       </c>
       <c r="E13" t="n">
-        <v>5619875</v>
+        <v>8442407</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST6977</t>
+          <t>CUST5231</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30197112</v>
+        <v>32461339</v>
       </c>
       <c r="E14" t="n">
-        <v>7483318</v>
+        <v>7946913</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST3668</t>
+          <t>CUST1258</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20953443</v>
+        <v>38780522</v>
       </c>
       <c r="E15" t="n">
-        <v>3265720</v>
+        <v>7379465</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST6255</t>
+          <t>CUST1857</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15652797</v>
+        <v>28396644</v>
       </c>
       <c r="E16" t="n">
-        <v>3200913</v>
+        <v>6635234</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST9561</t>
+          <t>CUST6462</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28982556</v>
+        <v>24679841</v>
       </c>
       <c r="E17" t="n">
-        <v>5502436</v>
+        <v>3850418</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST2341</t>
+          <t>CUST7497</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17202102</v>
+        <v>39459366</v>
       </c>
       <c r="E18" t="n">
-        <v>3656685</v>
+        <v>9491341</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5621</t>
+          <t>CUST6462</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26352911</v>
+        <v>32936170</v>
       </c>
       <c r="E19" t="n">
-        <v>4821911</v>
+        <v>7798214</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST8482</t>
+          <t>CUST7497</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23414360</v>
+        <v>36733662</v>
       </c>
       <c r="E20" t="n">
-        <v>4884117</v>
+        <v>7147408</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7893</t>
+          <t>CUST4605</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33560882</v>
+        <v>26761554</v>
       </c>
       <c r="E21" t="n">
-        <v>6305895</v>
+        <v>6548904</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST2341</t>
+          <t>CUST7132</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26463940</v>
+        <v>31217546</v>
       </c>
       <c r="E22" t="n">
-        <v>4361472</v>
+        <v>5615061</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST1970</t>
+          <t>CUST6238</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39778766</v>
+        <v>30125390</v>
       </c>
       <c r="E23" t="n">
-        <v>6903196</v>
+        <v>7029327</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9504</t>
+          <t>CUST7132</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31272447</v>
+        <v>35772682</v>
       </c>
       <c r="E24" t="n">
-        <v>6685462</v>
+        <v>5391999</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST6990</t>
+          <t>CUST5382</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25576191</v>
+        <v>34523094</v>
       </c>
       <c r="E25" t="n">
-        <v>4869885</v>
+        <v>6091665</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8900</t>
+          <t>CUST5866</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27907797</v>
+        <v>22999033</v>
       </c>
       <c r="E26" t="n">
-        <v>5774213</v>
+        <v>5139091</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST2341</t>
+          <t>CUST5382</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24847643</v>
+        <v>23939628</v>
       </c>
       <c r="E27" t="n">
-        <v>5747901</v>
+        <v>4268868</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST1608</t>
+          <t>CUST1258</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35866058</v>
+        <v>22735722</v>
       </c>
       <c r="E28" t="n">
-        <v>6131900</v>
+        <v>4750320</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4731</t>
+          <t>CUST7411</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27028958</v>
+        <v>18410696</v>
       </c>
       <c r="E29" t="n">
-        <v>4525431</v>
+        <v>4273636</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST9628</t>
+          <t>CUST9591</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23069556</v>
+        <v>29623923</v>
       </c>
       <c r="E30" t="n">
-        <v>4605083</v>
+        <v>6121464</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST1608</t>
+          <t>CUST5382</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>31407636</v>
+        <v>29889538</v>
       </c>
       <c r="E31" t="n">
-        <v>6538967</v>
+        <v>6454544</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST1970</t>
+          <t>CUST9003</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25662320</v>
+        <v>17617379</v>
       </c>
       <c r="E32" t="n">
-        <v>4130630</v>
+        <v>4287770</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST7161</t>
+          <t>CUST9786</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17910994</v>
+        <v>29677694</v>
       </c>
       <c r="E33" t="n">
-        <v>3887174</v>
+        <v>5284465</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3668</t>
+          <t>CUST1258</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>37685586</v>
+        <v>26809222</v>
       </c>
       <c r="E34" t="n">
-        <v>7110128</v>
+        <v>5989607</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST5697</t>
+          <t>CUST3164</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>33283046</v>
+        <v>39477448</v>
       </c>
       <c r="E35" t="n">
-        <v>7382627</v>
+        <v>8453488</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST7228</t>
+          <t>CUST6916</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31269894</v>
+        <v>39206348</v>
       </c>
       <c r="E36" t="n">
-        <v>5879198</v>
+        <v>8991124</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3668</t>
+          <t>CUST9550</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>36384300</v>
+        <v>32348450</v>
       </c>
       <c r="E37" t="n">
-        <v>8922703</v>
+        <v>6997720</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2767</t>
+          <t>CUST1312</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25427416</v>
+        <v>22248779</v>
       </c>
       <c r="E38" t="n">
-        <v>3831444</v>
+        <v>3726918</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST3818</t>
+          <t>CUST4605</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24415644</v>
+        <v>24275222</v>
       </c>
       <c r="E39" t="n">
-        <v>5096397</v>
+        <v>4746470</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST9593</t>
+          <t>CUST6257</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29196772</v>
+        <v>38541352</v>
       </c>
       <c r="E40" t="n">
-        <v>4845745</v>
+        <v>9549098</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST6251</t>
+          <t>CUST5525</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36300133</v>
+        <v>30763848</v>
       </c>
       <c r="E41" t="n">
-        <v>8154169</v>
+        <v>6051301</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6251</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25942871</v>
+        <v>30255155</v>
       </c>
       <c r="E42" t="n">
-        <v>4013581</v>
+        <v>6537072</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2866</t>
+          <t>CUST5525</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>34847761</v>
+        <v>30038450</v>
       </c>
       <c r="E43" t="n">
-        <v>7436415</v>
+        <v>6203760</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST6251</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17229064</v>
+        <v>25466635</v>
       </c>
       <c r="E44" t="n">
-        <v>3561553</v>
+        <v>4043002</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST9119</t>
+          <t>CUST1142</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>23722761</v>
+        <v>15425728</v>
       </c>
       <c r="E45" t="n">
-        <v>5727384</v>
+        <v>3671783</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST2767</t>
+          <t>CUST1641</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>23063840</v>
+        <v>29897510</v>
       </c>
       <c r="E46" t="n">
-        <v>3755248</v>
+        <v>4831097</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9149</t>
+          <t>CUST6864</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36263894</v>
+        <v>35578655</v>
       </c>
       <c r="E47" t="n">
-        <v>6370523</v>
+        <v>6124501</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6838</t>
+          <t>CUST6916</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18221218</v>
+        <v>29953041</v>
       </c>
       <c r="E48" t="n">
-        <v>2817000</v>
+        <v>6271262</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST2767</t>
+          <t>CUST6593</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38769067</v>
+        <v>30990140</v>
       </c>
       <c r="E49" t="n">
-        <v>6786560</v>
+        <v>6758319</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST2361</t>
+          <t>CUST4731</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>28986553</v>
+        <v>35902594</v>
       </c>
       <c r="E50" t="n">
-        <v>5658884</v>
+        <v>6643693</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST4006</t>
+          <t>CUST6593</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>31420036</v>
+        <v>24203758</v>
       </c>
       <c r="E51" t="n">
-        <v>7287979</v>
+        <v>5933134</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST2568</t>
+          <t>CUST3181</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>29367403</v>
+        <v>20672651</v>
       </c>
       <c r="E52" t="n">
-        <v>5139098</v>
+        <v>3692093</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST2767</t>
+          <t>CUST1857</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>18596460</v>
+        <v>22987290</v>
       </c>
       <c r="E53" t="n">
-        <v>3995730</v>
+        <v>5544550</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3305,24 +3305,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST8033</t>
+          <t>CUST7132</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>36705031</v>
+        <v>29992540</v>
       </c>
       <c r="E54" t="n">
-        <v>6329458</v>
+        <v>6488744</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3354,22 +3354,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST4004</t>
+          <t>CUST2259</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25342702</v>
+        <v>25168430</v>
       </c>
       <c r="E55" t="n">
-        <v>4187370</v>
+        <v>4836221</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>11</v>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9628</t>
+          <t>CUST7130</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30605838</v>
+        <v>26650800</v>
       </c>
       <c r="E56" t="n">
-        <v>5646142</v>
+        <v>4188648</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST8482</t>
+          <t>CUST9591</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>17910543</v>
+        <v>36384504</v>
       </c>
       <c r="E57" t="n">
-        <v>4186357</v>
+        <v>6714183</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST4237</t>
+          <t>CUST4494</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>19249123</v>
+        <v>29195878</v>
       </c>
       <c r="E58" t="n">
-        <v>3134511</v>
+        <v>4681448</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST7893</t>
+          <t>CUST6462</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21678102</v>
+        <v>15856615</v>
       </c>
       <c r="E59" t="n">
-        <v>3961926</v>
+        <v>3717510</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST4237</t>
+          <t>CUST6257</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25401453</v>
+        <v>22699904</v>
       </c>
       <c r="E60" t="n">
-        <v>3950752</v>
+        <v>4171716</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST6990</t>
+          <t>CUST9591</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>17452336</v>
+        <v>30800881</v>
       </c>
       <c r="E61" t="n">
-        <v>3337411</v>
+        <v>7202731</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST4004</t>
+          <t>CUST9786</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25313575</v>
+        <v>22692613</v>
       </c>
       <c r="E62" t="n">
-        <v>5358149</v>
+        <v>5093607</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST2568</t>
+          <t>CUST9550</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>30474413</v>
+        <v>31651669</v>
       </c>
       <c r="E63" t="n">
-        <v>5144698</v>
+        <v>5345768</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3840,25 +3840,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST6990</t>
+          <t>CUST6395</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>21195696</v>
+        <v>34049846</v>
       </c>
       <c r="E64" t="n">
-        <v>4258935</v>
+        <v>6491714</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST7161</t>
+          <t>CUST4731</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>36462700</v>
+        <v>35578246</v>
       </c>
       <c r="E65" t="n">
-        <v>7951125</v>
+        <v>5450730</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST6037</t>
+          <t>CUST5890</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>37749949</v>
+        <v>30689291</v>
       </c>
       <c r="E66" t="n">
-        <v>8945120</v>
+        <v>6191196</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3985,12 +3985,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST8033</t>
+          <t>CUST4047</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>27579883</v>
+        <v>38159600</v>
       </c>
       <c r="E67" t="n">
-        <v>5494051</v>
+        <v>7942729</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST1608</t>
+          <t>CUST6864</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>30672247</v>
+        <v>38556790</v>
       </c>
       <c r="E68" t="n">
-        <v>5579998</v>
+        <v>7993268</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST4006</t>
+          <t>CUST1142</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>21239751</v>
+        <v>28541501</v>
       </c>
       <c r="E69" t="n">
-        <v>4177814</v>
+        <v>7009465</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST3818</t>
+          <t>CUST6864</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>34784229</v>
+        <v>32587915</v>
       </c>
       <c r="E70" t="n">
-        <v>8376147</v>
+        <v>6306059</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST2341</t>
+          <t>CUST1791</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35710458</v>
+        <v>31835329</v>
       </c>
       <c r="E71" t="n">
-        <v>8447356</v>
+        <v>6713394</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST6037</t>
+          <t>CUST6317</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>32652154</v>
+        <v>23860197</v>
       </c>
       <c r="E72" t="n">
-        <v>5372234</v>
+        <v>4237712</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST8033</t>
+          <t>CUST2259</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>16964169</v>
+        <v>38076005</v>
       </c>
       <c r="E73" t="n">
-        <v>3489513</v>
+        <v>8027048</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4358,12 +4358,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST5621</t>
+          <t>CUST3267</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>21810137</v>
+        <v>22918461</v>
       </c>
       <c r="E74" t="n">
-        <v>3960887</v>
+        <v>4579807</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST8033</t>
+          <t>CUST6395</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>27704245</v>
+        <v>26809707</v>
       </c>
       <c r="E75" t="n">
-        <v>4258572</v>
+        <v>5494775</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,12 +4466,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4493,24 +4493,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST6255</t>
+          <t>CUST1791</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>18307735</v>
+        <v>20588320</v>
       </c>
       <c r="E76" t="n">
-        <v>4208524</v>
+        <v>3489198</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST5714</t>
+          <t>CUST4605</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>31663827</v>
+        <v>32265020</v>
       </c>
       <c r="E77" t="n">
-        <v>5865399</v>
+        <v>7721086</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST5257</t>
+          <t>CUST4494</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>34038455</v>
+        <v>26487782</v>
       </c>
       <c r="E78" t="n">
-        <v>8144569</v>
+        <v>4210131</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST3668</t>
+          <t>CUST6864</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>33113995</v>
+        <v>22821873</v>
       </c>
       <c r="E79" t="n">
-        <v>8203305</v>
+        <v>4608660</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST9504</t>
+          <t>CUST7497</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>28606260</v>
+        <v>34990458</v>
       </c>
       <c r="E80" t="n">
-        <v>5470873</v>
+        <v>8672093</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST6990</t>
+          <t>CUST7263</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>38722546</v>
+        <v>23355323</v>
       </c>
       <c r="E81" t="n">
-        <v>5889825</v>
+        <v>4904087</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6251</t>
+          <t>CUST3164</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>37319331</v>
+        <v>31691986</v>
       </c>
       <c r="E82" t="n">
-        <v>5744154</v>
+        <v>5520061</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,12 +4844,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST2842</t>
+          <t>CUST4047</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>31951532</v>
+        <v>16516633</v>
       </c>
       <c r="E83" t="n">
-        <v>6927305</v>
+        <v>3512474</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,17 +4898,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST9628</t>
+          <t>CUST9387</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>23351900</v>
+        <v>15682371</v>
       </c>
       <c r="E84" t="n">
-        <v>3952741</v>
+        <v>3075107</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST6394</t>
+          <t>CUST1258</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17434351</v>
+        <v>32913713</v>
       </c>
       <c r="E85" t="n">
-        <v>3877900</v>
+        <v>6965927</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST6077</t>
+          <t>CUST3267</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>16152395</v>
+        <v>15098265</v>
       </c>
       <c r="E86" t="n">
-        <v>3706989</v>
+        <v>2644382</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST9561</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>27131206</v>
+        <v>35507208</v>
       </c>
       <c r="E87" t="n">
-        <v>5608649</v>
+        <v>5832319</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST2341</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>38745182</v>
+        <v>26070492</v>
       </c>
       <c r="E88" t="n">
-        <v>6410565</v>
+        <v>6478616</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST9437</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>18869499</v>
+        <v>27119768</v>
       </c>
       <c r="E89" t="n">
-        <v>3646733</v>
+        <v>6220710</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2767</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>33429344</v>
+        <v>36986354</v>
       </c>
       <c r="E90" t="n">
-        <v>6127199</v>
+        <v>8678771</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST1608</t>
+          <t>CUST1258</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>21874882</v>
+        <v>19756187</v>
       </c>
       <c r="E91" t="n">
-        <v>5224796</v>
+        <v>3717989</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.7</v>
+        <v>88.7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>12129196</v>
+        <v>7265156</v>
       </c>
       <c r="E2" t="n">
-        <v>3094681</v>
+        <v>815388</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9356278</v>
+        <v>16366161</v>
       </c>
       <c r="E3" t="n">
-        <v>2785681</v>
+        <v>2150377</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5827852</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>631165</v>
       </c>
     </row>
     <row r="5">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>16828803</v>
+        <v>14796749</v>
       </c>
       <c r="E6" t="n">
-        <v>3850444</v>
+        <v>3895899</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>9259309</v>
+        <v>2478534</v>
       </c>
       <c r="E7" t="n">
-        <v>1682672</v>
+        <v>280941</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.8</v>
+        <v>75.2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>8237979</v>
+        <v>4535235</v>
       </c>
       <c r="E8" t="n">
-        <v>2448755</v>
+        <v>660211</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>16666132</v>
+        <v>1772606</v>
       </c>
       <c r="E9" t="n">
-        <v>3942653</v>
+        <v>323987</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>11648155</v>
+        <v>11177527</v>
       </c>
       <c r="E10" t="n">
-        <v>2765465</v>
+        <v>1334755</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>82.3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>12039479</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3175599</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>2240650</v>
+        <v>15497821</v>
       </c>
       <c r="E13" t="n">
-        <v>377578</v>
+        <v>2213883</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.3</v>
+        <v>84.5</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>11331862</v>
+        <v>3659784</v>
       </c>
       <c r="E14" t="n">
-        <v>2625919</v>
+        <v>998288</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>10730886</v>
+        <v>7068546</v>
       </c>
       <c r="E15" t="n">
-        <v>1144523</v>
+        <v>1279754</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>8131787</v>
+        <v>2434396</v>
       </c>
       <c r="E16" t="n">
-        <v>2291943</v>
+        <v>290098</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.3</v>
+        <v>80.7</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>10672606</v>
+        <v>12307527</v>
       </c>
       <c r="E17" t="n">
-        <v>1981292</v>
+        <v>2736862</v>
       </c>
     </row>
     <row r="18">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>83.8</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1830900</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>243961</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.2</v>
+        <v>87.7</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>6809069</v>
+        <v>12501803</v>
       </c>
       <c r="E20" t="n">
-        <v>1001456</v>
+        <v>3177565</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.2</v>
+        <v>87.7</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>7492193</v>
+        <v>7022375</v>
       </c>
       <c r="E21" t="n">
-        <v>777719</v>
+        <v>1730933</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.5</v>
+        <v>86.5</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>10017267</v>
+        <v>4904589</v>
       </c>
       <c r="E22" t="n">
-        <v>1641580</v>
+        <v>1389801</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.8</v>
+        <v>88</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>11145908</v>
+        <v>6415947</v>
       </c>
       <c r="E23" t="n">
-        <v>2789846</v>
+        <v>1171921</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>12757053</v>
+        <v>4278790</v>
       </c>
       <c r="E24" t="n">
-        <v>2644927</v>
+        <v>1067596</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>3169386</v>
+        <v>11358482</v>
       </c>
       <c r="E25" t="n">
-        <v>322774</v>
+        <v>1835585</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3812727</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>485811</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6934981</v>
+        <v>16378137</v>
       </c>
       <c r="E27" t="n">
-        <v>1486298</v>
+        <v>1653723</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>15538209</v>
+        <v>11207382</v>
       </c>
       <c r="E28" t="n">
-        <v>2597695</v>
+        <v>1267052</v>
       </c>
     </row>
     <row r="29">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>88.3</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5518902</v>
+        <v>10593416</v>
       </c>
       <c r="E29" t="n">
-        <v>1585718</v>
+        <v>1832203</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>11105036</v>
+        <v>12161493</v>
       </c>
       <c r="E30" t="n">
-        <v>2173547</v>
+        <v>1965278</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.8</v>
+        <v>78.5</v>
       </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>17704155</v>
+        <v>4304694</v>
       </c>
       <c r="E31" t="n">
-        <v>4695865</v>
+        <v>1101202</v>
       </c>
     </row>
     <row r="32">
